--- a/Fase 1/Análise de dados/respostas.xlsx
+++ b/Fase 1/Análise de dados/respostas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Usabilidade-e-Web-Design\Fase 1\Análise de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701EB64-64CD-4680-8539-D29BBBDC25D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E842A2E-CF5C-42E6-BA73-61820781970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4290" yWindow="-180" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="44">
   <si>
     <t>Nome</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>N.º Pergunta</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,417 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -335,30 +751,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -377,467 +793,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -853,27 +808,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC778965-65D4-48F4-AB7C-F4A78937F57D}" name="Tabela1" displayName="Tabela1" ref="C2:T9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC778965-65D4-48F4-AB7C-F4A78937F57D}" name="Tabela1" displayName="Tabela1" ref="C2:T9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="C2:T9" xr:uid="{CC778965-65D4-48F4-AB7C-F4A78937F57D}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{5C2FA740-2487-41D4-89FD-E63B7B6191B8}" name="Nome" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{89A7816B-7DF7-4615-B904-DB2CA477F3AF}" name="Idade" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{A65A2D45-78A4-499A-A7FD-9BC17F0D507B}" name="Sexo" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{8896D432-57B6-46D7-AB60-F715D2BED27C}" name="Pergunta 1" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{FD50536B-CDF5-4B09-B051-1F1F420ECBB2}" name="Pergunta 2" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{E5DFD359-0098-48FF-83E6-EF400A2147F5}" name="Pergunta 3" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{BB946955-5A64-4255-8AAA-AC40B17A3280}" name="Pergunta 4" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{5BC7F4A5-0A2A-4EEF-8CE4-B14CB944E9DD}" name="Pergunta 5" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{E49B34E0-A36D-44E2-93B1-0A368DBD6352}" name="Pergunta 6" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{0E3A8FC0-A3ED-4E21-B087-C7A940D460AE}" name="Pergunta 7" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{18A38290-8F00-46D2-8F65-EB5B8C5D7253}" name="Pergunta 8" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{46FC438A-D9A1-4A4F-AEF6-8D208BC36521}" name="Pergunta 9" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{9D938A52-C75A-4208-B649-FECDCDD7E88C}" name="Pergunta 10" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{70262BDD-AC3D-47AF-A026-F75804BDF87F}" name="Pergunta 11" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{8792FC95-A162-4D87-B8A3-2272280915CA}" name="Pergunta 12" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{D78560CE-BB6D-4D4C-B7E1-F8CA2FDCE47E}" name="Pergunta 13" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{01F57D6C-0F87-4EE4-9246-18C985160CE5}" name="Pergunta 14" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{06C40A3C-B2B9-46E2-8E6D-D985D871EDD1}" name="Pergunta 15" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5C2FA740-2487-41D4-89FD-E63B7B6191B8}" name="Nome" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{89A7816B-7DF7-4615-B904-DB2CA477F3AF}" name="Idade" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A65A2D45-78A4-499A-A7FD-9BC17F0D507B}" name="Sexo" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8896D432-57B6-46D7-AB60-F715D2BED27C}" name="Pergunta 1" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{FD50536B-CDF5-4B09-B051-1F1F420ECBB2}" name="Pergunta 2" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{E5DFD359-0098-48FF-83E6-EF400A2147F5}" name="Pergunta 3" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{BB946955-5A64-4255-8AAA-AC40B17A3280}" name="Pergunta 4" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{5BC7F4A5-0A2A-4EEF-8CE4-B14CB944E9DD}" name="Pergunta 5" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{E49B34E0-A36D-44E2-93B1-0A368DBD6352}" name="Pergunta 6" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{0E3A8FC0-A3ED-4E21-B087-C7A940D460AE}" name="Pergunta 7" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{18A38290-8F00-46D2-8F65-EB5B8C5D7253}" name="Pergunta 8" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{46FC438A-D9A1-4A4F-AEF6-8D208BC36521}" name="Pergunta 9" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{9D938A52-C75A-4208-B649-FECDCDD7E88C}" name="Pergunta 10" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{70262BDD-AC3D-47AF-A026-F75804BDF87F}" name="Pergunta 11" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{8792FC95-A162-4D87-B8A3-2272280915CA}" name="Pergunta 12" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{D78560CE-BB6D-4D4C-B7E1-F8CA2FDCE47E}" name="Pergunta 13" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{01F57D6C-0F87-4EE4-9246-18C985160CE5}" name="Pergunta 14" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{06C40A3C-B2B9-46E2-8E6D-D985D871EDD1}" name="Pergunta 15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1213,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1181,8 @@
     <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="20" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="4.125" customWidth="1"/>
+    <col min="7" max="20" width="4.625" customWidth="1"/>
     <col min="21" max="21" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1304,50 +1260,50 @@
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>25</v>
+      <c r="N3" s="7">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="8">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="U3" s="1"/>
     </row>
@@ -1365,8 +1321,8 @@
       <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>25</v>
+      <c r="F4" s="7">
+        <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -1374,41 +1330,41 @@
       <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
+      <c r="I4" s="7">
+        <v>2</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>26</v>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1425,50 +1381,50 @@
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
+      <c r="F5" s="7">
+        <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>21</v>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7">
+        <v>4</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1485,11 +1441,11 @@
       <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>22</v>
@@ -1497,38 +1453,38 @@
       <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>21</v>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7">
+        <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1545,8 +1501,8 @@
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
+      <c r="F7" s="7">
+        <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -1554,41 +1510,41 @@
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
+      <c r="I7" s="7">
+        <v>2</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>25</v>
+      <c r="K7" s="7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1605,50 +1561,50 @@
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
+      <c r="F8" s="7">
+        <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7">
+        <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="8">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1674,41 +1630,41 @@
       <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>22</v>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10">
+        <v>4</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1716,6 +1672,475 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(Tabela1[Pergunta 1])</f>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(Tabela1[Pergunta 2])</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(Tabela1[Pergunta 3])</f>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(Tabela1[Pergunta 4])</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE(Tabela1[Pergunta 5])</f>
+        <v>2.8</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE(Tabela1[Pergunta 6])</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(Tabela1[Pergunta 7])</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE(Tabela1[Pergunta 8])</f>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(Tabela1[Pergunta 9])</f>
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGE(Tabela1[Pergunta 10])</f>
+        <v>2</v>
+      </c>
+      <c r="P12" t="e">
+        <f>AVERAGE(Tabela1[Pergunta 11])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="e">
+        <f>AVERAGE(Tabela1[Pergunta 12])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <f>AVERAGE(Tabela1[Pergunta 13])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f>AVERAGE(Tabela1[Pergunta 14])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f>AVERAGE(Tabela1[Pergunta 15])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="e">
+        <f>AVERAGE(F19,F20)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
